--- a/data/trans_orig/IP16CS1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC07B41-05D2-49F7-93D7-ED41F4B56C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B85DEC-E3A2-47DE-92CE-AA354C1E7F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A16E2E55-2D91-45D6-921C-A3EFC39AEF63}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EED26F55-958D-49C7-A537-99203E790FA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="111">
   <si>
     <t>Menores que no se han vacunado por el motivo siguiente en 2023 (Tasa respuesta: 2,29%)</t>
   </si>
@@ -119,25 +119,25 @@
     <t>72,13%</t>
   </si>
   <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>47,21%</t>
+    <t>44,42%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -146,37 +146,37 @@
     <t>7,18%</t>
   </si>
   <si>
-    <t>37,34%</t>
+    <t>38,33%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>14,05%</t>
+    <t>11,37%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>22,84%</t>
+    <t>22,54%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>44,36%</t>
+    <t>45,63%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>22,75%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>5,08%</t>
   </si>
   <si>
-    <t>27,0%</t>
+    <t>23,47%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -185,19 +185,19 @@
     <t>3,26%</t>
   </si>
   <si>
-    <t>21,27%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>52,05%</t>
+    <t>49,91%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>33,72%</t>
+    <t>34,56%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -206,25 +206,25 @@
     <t>88,31%</t>
   </si>
   <si>
-    <t>49,3%</t>
+    <t>49,05%</t>
   </si>
   <si>
     <t>58,39%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
   </si>
   <si>
     <t>68,84%</t>
   </si>
   <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -233,25 +233,25 @@
     <t>12,71%</t>
   </si>
   <si>
-    <t>49,79%</t>
+    <t>52,67%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>34,01%</t>
+    <t>36,98%</t>
   </si>
   <si>
     <t>28,91%</t>
   </si>
   <si>
-    <t>70,38%</t>
+    <t>69,09%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>54,15%</t>
+    <t>45,31%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -260,37 +260,40 @@
     <t>11,69%</t>
   </si>
   <si>
-    <t>50,7%</t>
+    <t>50,95%</t>
   </si>
   <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>20,21%</t>
+    <t>22,93%</t>
   </si>
   <si>
     <t>78,66%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>71,46%</t>
   </si>
   <si>
-    <t>44,35%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -299,43 +302,43 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>33,9%</t>
+    <t>36,44%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>17,68%</t>
+    <t>15,45%</t>
   </si>
   <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>15,37%</t>
+    <t>16,26%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>10,3%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>21,1%</t>
+    <t>19,46%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -344,7 +347,7 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>11,68%</t>
+    <t>9,35%</t>
   </si>
   <si>
     <t>15,12%</t>
@@ -353,16 +356,16 @@
     <t>2,82%</t>
   </si>
   <si>
-    <t>38,48%</t>
+    <t>37,14%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -777,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44BF811-A66E-44F7-AC92-2342893BD99F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB244BA-1DC5-4AE5-8CB2-9299991C5A3D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1846,7 +1849,7 @@
         <v>81</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -1855,13 +1858,13 @@
         <v>18348</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,7 +1885,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1891,13 +1894,13 @@
         <v>1084</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -1906,13 +1909,13 @@
         <v>1084</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1930,13 @@
         <v>372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -1942,13 +1945,13 @@
         <v>2137</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -1957,13 +1960,13 @@
         <v>2509</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1981,13 @@
         <v>442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1999,7 +2002,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2008,13 +2011,13 @@
         <v>442</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2032,13 @@
         <v>1976</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2050,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2059,13 +2062,13 @@
         <v>1976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,7 +2124,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16CS1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16CS1_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28B85DEC-E3A2-47DE-92CE-AA354C1E7F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6A31F1-9DCA-45EE-809A-BDDA7E0BF598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EED26F55-958D-49C7-A537-99203E790FA7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D0576505-6841-4161-8607-46D17EF37B08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="111">
-  <si>
-    <t>Menores que no se han vacunado por el motivo siguiente en 2023 (Tasa respuesta: 2,29%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="110">
+  <si>
+    <t>Menores según el motivo por el que no se han vacunado en 2023 (Tasa respuesta: 2,29%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,15 +74,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
@@ -95,12 +95,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>77,15%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -116,256 +116,253 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>31,92%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -780,7 +777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB244BA-1DC5-4AE5-8CB2-9299991C5A3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A119E2B1-2C15-47C7-8848-2C3E3C32A671}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -898,10 +895,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1254</v>
+        <v>603</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -913,10 +910,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>652</v>
+        <v>1346</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -931,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1906</v>
+        <v>1950</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -1153,25 +1150,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>603</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>1254</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
       <c r="I9" s="7">
-        <v>652</v>
+        <v>1346</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1186,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>1906</v>
+        <v>1950</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1206,10 +1203,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>6279</v>
+        <v>4100</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
@@ -1218,28 +1215,28 @@
         <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6408</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4030</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>10309</v>
+        <v>10508</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>31</v>
@@ -1257,31 +1254,31 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>36</v>
@@ -1290,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>37</v>
@@ -1311,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>372</v>
+        <v>461</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>39</v>
@@ -1326,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>461</v>
+        <v>381</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>41</v>
@@ -1341,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>43</v>
@@ -1359,31 +1356,31 @@
         <v>23</v>
       </c>
       <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
-        <v>442</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>464</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>47</v>
@@ -1392,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -1410,40 +1407,40 @@
         <v>24</v>
       </c>
       <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="7">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
-        <v>1612</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>1642</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1612</v>
+        <v>1642</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>52</v>
@@ -1461,10 +1458,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7">
-        <v>8704</v>
+        <v>4912</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1476,10 +1473,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>4839</v>
+        <v>8895</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1494,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="N15" s="7">
-        <v>13543</v>
+        <v>13807</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1514,10 +1511,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>2749</v>
+        <v>3344</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>55</v>
@@ -1529,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3385</v>
+        <v>3049</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>57</v>
@@ -1541,22 +1538,22 @@
         <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>6134</v>
+        <v>6393</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,49 +1562,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>721</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,49 +1613,49 @@
         <v>22</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>1676</v>
+        <v>1650</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,7 +1676,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1694,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1709,7 +1706,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,49 +1715,49 @@
         <v>24</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>364</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>358</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,25 +1766,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5716</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7">
         <v>6</v>
       </c>
-      <c r="D21" s="7">
-        <v>3113</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>9</v>
-      </c>
       <c r="I21" s="7">
-        <v>5797</v>
+        <v>3407</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1802,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="N21" s="7">
-        <v>8910</v>
+        <v>9123</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1822,49 +1819,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8048</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="7">
         <v>20</v>
       </c>
-      <c r="D22" s="7">
-        <v>10282</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>10803</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="7">
-        <v>14</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8066</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
       </c>
       <c r="N22" s="7">
-        <v>18348</v>
+        <v>18851</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,49 +1870,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>1084</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,49 +1921,49 @@
         <v>22</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>372</v>
+        <v>2112</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>92</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>2137</v>
+        <v>381</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>93</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
       </c>
       <c r="N24" s="7">
-        <v>2509</v>
+        <v>2493</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,49 +1972,49 @@
         <v>23</v>
       </c>
       <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>442</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>464</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="N25" s="7">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,49 +2023,49 @@
         <v>24</v>
       </c>
       <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
-        <v>1976</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>2001</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>1976</v>
+        <v>2001</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,25 +2074,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>19</v>
+      </c>
+      <c r="D27" s="7">
+        <v>11231</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>25</v>
       </c>
-      <c r="D27" s="7">
-        <v>13072</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="7">
-        <v>19</v>
-      </c>
       <c r="I27" s="7">
-        <v>11287</v>
+        <v>13649</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2110,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="N27" s="7">
-        <v>24359</v>
+        <v>24880</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2124,7 +2121,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
